--- a/data/performance_sheets_option2/BA47 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets_option2/BA47 Overall Model Peformance Results.xlsx
@@ -770,19 +770,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.01483710365504294</v>
+        <v>0.04691346051182279</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1030188779544438</v>
+        <v>0.1865129431110523</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1528091929791777</v>
+        <v>0.2643682770640485</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.1218076502320069</v>
+        <v>0.2165951534818422</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>16.53505179455059</v>
+        <v>31.91825104663496</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -800,19 +800,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.02041147161640268</v>
+        <v>0.02885241618130121</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.111319364739438</v>
+        <v>0.1334341014862883</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.1540402751481426</v>
+        <v>0.1803507468632586</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.1428687216167439</v>
+        <v>0.1698599899367159</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>16.64783861728121</v>
+        <v>20.41689859926331</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -2049,19 +2049,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>1.994211589162994</v>
+        <v>2.07200103491992</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1.145708898043199</v>
+        <v>1.187851047728577</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>881580452626137.2</v>
+        <v>1248114887416049</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>1.412165567192103</v>
+        <v>1.439444696721593</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>138.4801889649859</v>
+        <v>126.6634220714332</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -2079,19 +2079,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>3.218262943022966</v>
+        <v>3.334926492421043</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>1.534719607534736</v>
+        <v>1.532943886976013</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>1227166930348302</v>
+        <v>1333255582114454</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>1.793951767195252</v>
+        <v>1.826178110815329</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>154.6658802286882</v>
+        <v>144.2668875280528</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -3325,19 +3325,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>1.644934037805279</v>
+        <v>3.224930151253239</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1.106668376821629</v>
+        <v>1.56809450850699</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>370024042308708.1</v>
+        <v>2805591122406188</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>1.282549818839517</v>
+        <v>1.795809052002255</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>129.7809776241938</v>
+        <v>142.0068760354083</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -3355,19 +3355,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>3.674253810125929</v>
+        <v>3.415090021873789</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>1.636798202388761</v>
+        <v>1.391320549173342</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>753269908404052</v>
+        <v>2687705635541630</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>1.916834319946805</v>
+        <v>1.847996218035575</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>148.7592394532336</v>
+        <v>121.0415047878117</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -4601,19 +4601,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>1.985591150571636</v>
+        <v>0.5743855400463201</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1.102791466457138</v>
+        <v>0.6393050843728957</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.102791466457138</v>
+        <v>1155788721451477</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>1.409110056231108</v>
+        <v>0.7578822732102395</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>62.33066291197996</v>
+        <v>148.4429963237464</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -4631,19 +4631,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>1.950634294757157</v>
+        <v>1.074940472317289</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>1.189848969081978</v>
+        <v>0.9264864060084336</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>1.189848969081978</v>
+        <v>1767106575282857</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>1.396651099866089</v>
+        <v>1.03679336047126</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>67.59803863290624</v>
+        <v>156.3590355411109</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -5875,19 +5875,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.0520871340535126</v>
+        <v>0.0625997910994754</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1622451343855822</v>
+        <v>0.1531860723716411</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.054182379955006</v>
+        <v>1.387247866103559</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.22822605910262</v>
+        <v>0.2501995025963789</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>31.38614227680029</v>
+        <v>29.49183187031828</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -5905,19 +5905,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.0489277720518562</v>
+        <v>0.06106904735098521</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.1608128515329596</v>
+        <v>0.156049111848684</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>1.011824568724393</v>
+        <v>1.365485768840762</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.2211962297415039</v>
+        <v>0.2471215234474432</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>31.32712126044421</v>
+        <v>30.12491575558443</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -7149,19 +7149,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.0406746845756509</v>
+        <v>0.05118941941207773</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1648257775042018</v>
+        <v>0.1273370174838717</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.6671631274055296</v>
+        <v>1.321598690600179</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.2016796583090395</v>
+        <v>0.226250788754598</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>31.34094870814753</v>
+        <v>25.40619142710907</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -7179,19 +7179,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.0416213943030139</v>
+        <v>0.05123666249868912</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.1615517366503065</v>
+        <v>0.1288673666514994</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.7201030652503304</v>
+        <v>1.320984477050704</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.2040132209025041</v>
+        <v>0.2263551689241691</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>31.34288607380982</v>
+        <v>25.61218087449125</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -8423,19 +8423,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.0371194671467892</v>
+        <v>0.04000674610406072</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1496786391242539</v>
+        <v>0.1158203960128188</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.5906838376905774</v>
+        <v>1.22911721571609</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.1926641304103834</v>
+        <v>0.2000168645491193</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>27.08051347963798</v>
+        <v>23.842678626271</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -8453,19 +8453,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.0379152536317867</v>
+        <v>0.03907460257366401</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.152082487289292</v>
+        <v>0.1136154213718629</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.5949437651143696</v>
+        <v>1.218614462923644</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.1947183957200416</v>
+        <v>0.197672968748041</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>27.42430589501549</v>
+        <v>23.39720696724434</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -9697,19 +9697,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.4133379099667489</v>
+        <v>0.5571122454997859</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.3298510386794372</v>
+        <v>0.3290837317365065</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.5429062573756847</v>
+        <v>0.5893408455031428</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.6429136100338434</v>
+        <v>0.7463995213689422</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>16.22812679781412</v>
+        <v>16.50080709725727</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -9727,19 +9727,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.4684379674174951</v>
+        <v>0.5836818109352441</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.3028514749190444</v>
+        <v>0.312714877982272</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.5594292952003361</v>
+        <v>0.6026950289361571</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.6844252825674217</v>
+        <v>0.7639907139064218</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>15.09414614437172</v>
+        <v>15.77144523923839</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -10971,19 +10971,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.3089188787036674</v>
+        <v>0.5155407986192199</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.3394629456669875</v>
+        <v>0.3006019845877092</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.5371301744730543</v>
+        <v>0.5959316637386596</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.5558047127397063</v>
+        <v>0.7180116981075029</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>16.2681420972264</v>
+        <v>15.26681300847412</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -11001,19 +11001,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.2958074798954324</v>
+        <v>0.57239993670042</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.3301126511183006</v>
+        <v>0.3089059745282263</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.5211553597220456</v>
+        <v>0.623098472661228</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.5438818620761612</v>
+        <v>0.7565711709419147</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>15.72067855765676</v>
+        <v>15.64152761325156</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -12245,19 +12245,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.3370656229824163</v>
+        <v>0.3874259376212878</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.4153007113343758</v>
+        <v>0.2777114738634539</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.5379657057119528</v>
+        <v>0.2593953539199081</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.5805735293504315</v>
+        <v>0.6224354887225565</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>17.6730295893382</v>
+        <v>14.13148955516594</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -12275,19 +12275,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.3338038145638269</v>
+        <v>0.4287089854629551</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.4105122773919743</v>
+        <v>0.2854500612082672</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.537400311335051</v>
+        <v>0.273780828100897</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.5777575742158876</v>
+        <v>0.6547587230903877</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>17.55332855807715</v>
+        <v>14.46699999592231</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -13519,19 +13519,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.07747839522718199</v>
+        <v>0.1386605782654952</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.2060679940068997</v>
+        <v>0.3124623015815102</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.3299348239261332</v>
+        <v>0.4461094991200831</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.2783494121193397</v>
+        <v>0.3723715594208226</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>29.83180521515953</v>
+        <v>45.21348982288627</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -14523,19 +14523,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.0219848111635346</v>
+        <v>0.03287235298010502</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1080856996918236</v>
+        <v>0.1193170587321527</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.3214846467850102</v>
+        <v>0.1710301538722946</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.1482727593441715</v>
+        <v>0.1813073439773056</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>19.51895741861414</v>
+        <v>18.84215654103123</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -14553,19 +14553,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.02364916059987598</v>
+        <v>0.03241142083640988</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.1161060630502809</v>
+        <v>0.1184776699774059</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.3285415361367514</v>
+        <v>0.1583014124449199</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.1537828358428729</v>
+        <v>0.1800317217503901</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>21.70650042879201</v>
+        <v>17.60310688830728</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -15797,19 +15797,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.1536127036462688</v>
+        <v>0.2467826283452084</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.3299637936149924</v>
+        <v>0.388514580633978</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.6311261325070912</v>
+        <v>0.6149863109339269</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.3919345655160677</v>
+        <v>0.496772209715085</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>62.36014342910416</v>
+        <v>74.62512569230762</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -16801,19 +16801,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.4035787628082199</v>
+        <v>1.524633521049598</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.4714953030535635</v>
+        <v>0.9061769672805832</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.068734076339725</v>
+        <v>1.322648818574927</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.6352784923230282</v>
+        <v>1.234760511617373</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>60.03213600391378</v>
+        <v>108.378041188903</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -17805,19 +17805,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.5208274479427405</v>
+        <v>1.086878532347106</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.529740802047461</v>
+        <v>0.7143386181492126</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1956724571396531</v>
+        <v>0.2690915174269095</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.7216837589573015</v>
+        <v>1.042534667215966</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>22.741933157505</v>
+        <v>30.17736775151323</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -18809,19 +18809,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>1.092542379692978</v>
+        <v>13.47039894701386</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.8825339563611657</v>
+        <v>3.187357589496772</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.3441506381302679</v>
+        <v>1.210081305327064</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>1.045247520778202</v>
+        <v>3.670204210532959</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>42.92058179080536</v>
+        <v>124.4510893863022</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -19813,19 +19813,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>5.034782728880209</v>
+        <v>20.586938048087</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1.871465020504289</v>
+        <v>3.582806496431216</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.7655382571791457</v>
+        <v>1.408202573752562</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>2.243832152564048</v>
+        <v>4.537283113063037</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>104.1834677270469</v>
+        <v>101.8058318287786</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -20817,19 +20817,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.01634403251319262</v>
+        <v>0.03318441325406175</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.08993158005782398</v>
+        <v>0.1252566644950564</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.2025204679863861</v>
+        <v>0.1683210465241228</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.12784378167589</v>
+        <v>0.1821658948707517</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>16.29104946347334</v>
+        <v>18.32138605344866</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -20847,19 +20847,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.02212150686583767</v>
+        <v>0.03796050833193022</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.1015561185164861</v>
+        <v>0.1360457340208823</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.2418119943653874</v>
+        <v>0.1916771712754864</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.1487330053009004</v>
+        <v>0.1948345665736196</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>17.93486706844428</v>
+        <v>20.06547374668843</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -22091,19 +22091,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.06470051211125459</v>
+        <v>0.1598974865623922</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.2327333807969615</v>
+        <v>0.3031012090569071</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.08470012657680222</v>
+        <v>0.105392530394474</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.2543629534960911</v>
+        <v>0.3998718376710121</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>8.915341673796854</v>
+        <v>11.41564632551584</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -22121,19 +22121,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.06170976881229256</v>
+        <v>0.3044080361402858</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.2045848912398297</v>
+        <v>0.4577233799393349</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.07417282027213712</v>
+        <v>0.1619838810195003</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.2484145100679358</v>
+        <v>0.5517318516637278</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>7.829303259982996</v>
+        <v>18.28631078947365</v>
       </c>
     </row>
     <row r="8" ht="28.5" customHeight="1">
@@ -23366,19 +23366,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.1407385282313862</v>
+        <v>0.2598561042740906</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.2527344372990904</v>
+        <v>0.393082015214089</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1393587580815377</v>
+        <v>0.1672503804963263</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.3751513404366113</v>
+        <v>0.5097608304627678</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>11.098413398977</v>
+        <v>15.93818039721589</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -23396,19 +23396,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.1398757857245101</v>
+        <v>0.1486769443332642</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.2265282671729741</v>
+        <v>0.2709992587839502</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.1323327347580624</v>
+        <v>0.1089293902373044</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.3739997135353316</v>
+        <v>0.3855864939715397</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>10.0938098089475</v>
+        <v>11.06225236777087</v>
       </c>
     </row>
     <row r="8" ht="28.5" customHeight="1">
@@ -24641,19 +24641,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.1138329317567447</v>
+        <v>0.1934730861495593</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.2774244433632939</v>
+        <v>0.3508298263297101</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.108251382054203</v>
+        <v>0.1257689352277472</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.3373913628958879</v>
+        <v>0.4398557560718733</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>10.97980731594533</v>
+        <v>13.53529625332182</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -24671,19 +24671,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.05472343079683527</v>
+        <v>0.1522180623770018</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.1703763142707792</v>
+        <v>0.286408596400033</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.07329135004956173</v>
+        <v>0.1002288701696343</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.2339303973339832</v>
+        <v>0.3901513326608047</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>6.960324412165725</v>
+        <v>10.95373872239175</v>
       </c>
     </row>
     <row r="8" ht="28.5" customHeight="1">
@@ -25918,19 +25918,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.4431704956306726</v>
+        <v>0.5260366833872417</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.5330148010139873</v>
+        <v>0.5705673325065613</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.5330148010139873</v>
+        <v>1827365085516500</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.6657105193931313</v>
+        <v>0.72528386400584</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>38.615317335042</v>
+        <v>101.6327086128056</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -25948,19 +25948,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.1862423838046708</v>
+        <v>0.5170865583208656</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.3466473319021123</v>
+        <v>0.6189909348566051</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.3466473319021123</v>
+        <v>1189458637335924</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.4315580885636033</v>
+        <v>0.7190873092475388</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>30.67426109026116</v>
+        <v>140.0657036784634</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -27196,19 +27196,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>1.264806957951837</v>
+        <v>1.267042639819518</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.8979998672621781</v>
+        <v>0.934943440663304</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1017559624395277</v>
+        <v>1057520239090499</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>1.124636366987942</v>
+        <v>1.125629885805951</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>105.298104989268</v>
+        <v>138.4187521429556</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -27226,19 +27226,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>1.426242031667737</v>
+        <v>1.396843910230323</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.9429600008750149</v>
+        <v>0.9445377265692172</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>1082575364642774</v>
+        <v>917663742709628.8</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>1.194253755140731</v>
+        <v>1.181881512771193</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>101.9974391910917</v>
+        <v>128.1432478721961</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -28472,19 +28472,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>1.777976995805004</v>
+        <v>0.3037978710989326</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1.044362941890958</v>
+        <v>0.461187361244236</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>238069633464006.4</v>
+        <v>995708078678606.6</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>1.333408038000748</v>
+        <v>0.5511786199581153</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>136.6859334851256</v>
+        <v>97.02342091475758</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -28502,19 +28502,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>2.242676310280102</v>
+        <v>0.3104558838041753</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>1.286659605897336</v>
+        <v>0.4565850693909362</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>260953088491910.4</v>
+        <v>778604034187215.8</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>1.497556780319231</v>
+        <v>0.5571856816216434</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>167.2353660307162</v>
+        <v>107.2049613212096</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
